--- a/SenatorWikiData.xlsx
+++ b/SenatorWikiData.xlsx
@@ -14,38 +14,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+  <si>
+    <t>SenatorName</t>
+  </si>
+  <si>
+    <t>Kamala Harris</t>
+  </si>
   <si>
     <t>Loretta Sanchez</t>
   </si>
   <si>
+    <t>Duf Sundheim</t>
+  </si>
+  <si>
+    <t>Phil Wyman</t>
+  </si>
+  <si>
+    <t>Tom Del Beccaro</t>
+  </si>
+  <si>
+    <t>Greg Conlon</t>
+  </si>
+  <si>
+    <t>Steve Stokes</t>
+  </si>
+  <si>
+    <t>George C.Yang</t>
+  </si>
+  <si>
+    <t>Karen Roseberry</t>
+  </si>
+  <si>
+    <t>Gail K.Lightfoot</t>
+  </si>
+  <si>
+    <t>Massie Munroe</t>
+  </si>
+  <si>
+    <t>Pamela Elizondo</t>
+  </si>
+  <si>
+    <t>Tom Palzer</t>
+  </si>
+  <si>
     <t>Ron Unz</t>
   </si>
   <si>
-    <t>Kamala Harris</t>
-  </si>
-  <si>
-    <t>Duf Sundheim</t>
-  </si>
-  <si>
-    <t>Phil Wyman</t>
-  </si>
-  <si>
-    <t>Tom Del Beccaro</t>
+    <t>Don Krampe</t>
+  </si>
+  <si>
+    <t>Eleanor GarcÌ_a</t>
+  </si>
+  <si>
+    <t>Jarrell Williamson</t>
+  </si>
+  <si>
+    <t>Von Hougo</t>
+  </si>
+  <si>
+    <t>President Cristina Grappo</t>
+  </si>
+  <si>
+    <t>Jerry J.Laws</t>
   </si>
   <si>
     <t>Mark Matthew Herd</t>
   </si>
   <si>
+    <t>John Thompson Parker</t>
+  </si>
+  <si>
+    <t>Ling Ling Shi</t>
+  </si>
+  <si>
+    <t>Herbert G.Peters</t>
+  </si>
+  <si>
+    <t>Emory Peretz Rodgers</t>
+  </si>
+  <si>
+    <t>Mike Beitiks</t>
+  </si>
+  <si>
+    <t>Clive Grey</t>
+  </si>
+  <si>
+    <t>Jason Hanania</t>
+  </si>
+  <si>
+    <t>Paul Merritt</t>
+  </si>
+  <si>
+    <t>Jason Kraus</t>
+  </si>
+  <si>
+    <t>Don J.Grundmann</t>
+  </si>
+  <si>
+    <t>Scott A.Vineberg</t>
+  </si>
+  <si>
+    <t>Tim Gildersleeve</t>
+  </si>
+  <si>
+    <t>Gar Myers</t>
+  </si>
+  <si>
+    <t>Billy Falling</t>
+  </si>
+  <si>
+    <t>Ric M.Llewellyn</t>
+  </si>
+  <si>
+    <t>Alexis Stuart</t>
+  </si>
+  <si>
     <t>Richard Shelby</t>
   </si>
   <si>
+    <t>Jonathan McConnell</t>
+  </si>
+  <si>
     <t>John Martin</t>
   </si>
   <si>
+    <t>Marcus Bowman</t>
+  </si>
+  <si>
+    <t>Shadrack McGill</t>
+  </si>
+  <si>
+    <t>Ron Crumpton</t>
+  </si>
+  <si>
+    <t>Charles Nana</t>
+  </si>
+  <si>
     <t>Lisa Murkowski</t>
   </si>
   <si>
+    <t>Bob Lochner</t>
+  </si>
+  <si>
     <t>Paul Kendall</t>
   </si>
   <si>
@@ -58,27 +169,57 @@
     <t>Edgar Blatchford</t>
   </si>
   <si>
+    <t>Cean Stevens</t>
+  </si>
+  <si>
     <t>John McCain</t>
   </si>
   <si>
     <t>Kelli Ward</t>
   </si>
   <si>
+    <t>Alex Meluskey</t>
+  </si>
+  <si>
+    <t>Clair Van Steenwyk</t>
+  </si>
+  <si>
+    <t>Sean Webster</t>
+  </si>
+  <si>
     <t>Ann Kirkpatrick</t>
   </si>
   <si>
+    <t>Alex Bello</t>
+  </si>
+  <si>
+    <t>Gary Swing</t>
+  </si>
+  <si>
+    <t>Merissa Hamilton</t>
+  </si>
+  <si>
     <t>John Boozman</t>
   </si>
   <si>
+    <t>Curtis Coleman</t>
+  </si>
+  <si>
     <t>Conner Eldridge</t>
   </si>
   <si>
+    <t xml:space="preserve">Michael Bennet (Incumbent) </t>
+  </si>
+  <si>
     <t>Darryl Glenn</t>
   </si>
   <si>
     <t>Jack Graham</t>
   </si>
   <si>
+    <t>Robert Blaha</t>
+  </si>
+  <si>
     <t>Jon Keyser</t>
   </si>
   <si>
@@ -91,15 +232,27 @@
     <t>Dan Carter</t>
   </si>
   <si>
+    <t>Richard Lion</t>
+  </si>
+  <si>
+    <t>Jeffery Russell</t>
+  </si>
+  <si>
     <t>Andrew Rule</t>
   </si>
   <si>
+    <t xml:space="preserve">John M. Traceski </t>
+  </si>
+  <si>
     <t>Marco Rubio</t>
   </si>
   <si>
     <t>Carlos Beruff</t>
   </si>
   <si>
+    <t>Dwight Young</t>
+  </si>
+  <si>
     <t>Ernie Rivera</t>
   </si>
   <si>
@@ -109,16 +262,28 @@
     <t>Alan Grayson</t>
   </si>
   <si>
+    <t>Pam Keith</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rocky De La Fuente </t>
   </si>
   <si>
+    <t>Reginald Luster</t>
+  </si>
+  <si>
     <t>Johnny Isakson</t>
   </si>
   <si>
+    <t>Derrick Grayson</t>
+  </si>
+  <si>
     <t>Mary Kay</t>
   </si>
   <si>
-    <t>Jim F. Barksdale</t>
+    <t>Jim Barksdale</t>
+  </si>
+  <si>
+    <t>Cheryl Copeland</t>
   </si>
   <si>
     <t>John Coyne</t>
@@ -130,18 +295,42 @@
     <t>Makani Christensen</t>
   </si>
   <si>
+    <t>Miles Shiratori</t>
+  </si>
+  <si>
+    <t>Arturo Reyes</t>
+  </si>
+  <si>
+    <t>Tutz Honeychurch</t>
+  </si>
+  <si>
+    <t>Joy Allison</t>
+  </si>
+  <si>
+    <t>John Giuffre</t>
+  </si>
+  <si>
     <t>Mike Crapo</t>
   </si>
   <si>
     <t>Jerry Sturgill</t>
   </si>
   <si>
+    <t xml:space="preserve">Ray J. Writz </t>
+  </si>
+  <si>
     <t>Mark Kirk</t>
   </si>
   <si>
+    <t>James T. Marter</t>
+  </si>
+  <si>
     <t>Tammy Duckworth</t>
   </si>
   <si>
+    <t>Andrea Zopp</t>
+  </si>
+  <si>
     <t>Napoleon Harris</t>
   </si>
   <si>
@@ -172,6 +361,15 @@
     <t>Jerry Moran</t>
   </si>
   <si>
+    <t>D.J. Smith</t>
+  </si>
+  <si>
+    <t>Patrick Wiesner</t>
+  </si>
+  <si>
+    <t>Monique Singh-Bey</t>
+  </si>
+  <si>
     <t>Rand Paul</t>
   </si>
   <si>
@@ -181,6 +379,30 @@
     <t>Stephen Slaughter</t>
   </si>
   <si>
+    <t>Jim Gray</t>
+  </si>
+  <si>
+    <t>Sellus Wilder</t>
+  </si>
+  <si>
+    <t>Ron Leach</t>
+  </si>
+  <si>
+    <t>Tom Recktenwald</t>
+  </si>
+  <si>
+    <t>Grant Short</t>
+  </si>
+  <si>
+    <t>Jeff Kender</t>
+  </si>
+  <si>
+    <t>Rory Houlihan</t>
+  </si>
+  <si>
+    <t>John Kennedy</t>
+  </si>
+  <si>
     <t>Foster Campbell</t>
   </si>
   <si>
@@ -190,51 +412,162 @@
     <t>Donna Edwards</t>
   </si>
   <si>
+    <t>Freddie Dickson</t>
+  </si>
+  <si>
+    <t>Theresa Scaldaferri</t>
+  </si>
+  <si>
+    <t>Violet Staley</t>
+  </si>
+  <si>
+    <t>Lih Young</t>
+  </si>
+  <si>
     <t>Charles Smith</t>
   </si>
   <si>
+    <t>Ralph Jaffe</t>
+  </si>
+  <si>
     <t>Blaine Taylor</t>
   </si>
   <si>
+    <t>Ed Tinus</t>
+  </si>
+  <si>
     <t>Kathy Szeliga</t>
   </si>
   <si>
+    <t>Chris Chaffee</t>
+  </si>
+  <si>
+    <t>Chrys Kefalas</t>
+  </si>
+  <si>
     <t>Richard Douglas</t>
   </si>
   <si>
+    <t>Dave Wallace</t>
+  </si>
+  <si>
     <t>Sean Connor</t>
   </si>
   <si>
     <t>Lynn Richardson</t>
   </si>
   <si>
+    <t>John Graziani</t>
+  </si>
+  <si>
     <t>Greg Holmes</t>
   </si>
   <si>
+    <t>Mark McNicholas</t>
+  </si>
+  <si>
+    <t>Joe Hooe</t>
+  </si>
+  <si>
+    <t>Anthony Seda</t>
+  </si>
+  <si>
+    <t>Richard Shawver</t>
+  </si>
+  <si>
+    <t>Garry Yarrington</t>
+  </si>
+  <si>
+    <t>Margaret Flowers</t>
+  </si>
+  <si>
     <t>Roy Blunt</t>
   </si>
   <si>
+    <t>Kristi Nichols</t>
+  </si>
+  <si>
+    <t>Ryan Luethy</t>
+  </si>
+  <si>
+    <t>Bernie Mowinski</t>
+  </si>
+  <si>
     <t>Jason Kander</t>
   </si>
   <si>
+    <t>Cori Bush</t>
+  </si>
+  <si>
+    <t>Chief Wana Dubie</t>
+  </si>
+  <si>
+    <t>Robert Mack</t>
+  </si>
+  <si>
+    <t>Jonathan Dine</t>
+  </si>
+  <si>
+    <t>Herschel Young</t>
+  </si>
+  <si>
+    <t>Fred Ryman</t>
+  </si>
+  <si>
     <t xml:space="preserve">Catherine Cortez Masto </t>
   </si>
   <si>
+    <t xml:space="preserve">Allen Rheinhart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liddo Susan O'Briant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobby Mahendra </t>
+  </si>
+  <si>
     <t>Joe Heck</t>
   </si>
   <si>
     <t>Sharron Angle</t>
   </si>
   <si>
+    <t>Thomas Heck</t>
+  </si>
+  <si>
+    <t>Eddie Hamilton</t>
+  </si>
+  <si>
+    <t>D'Nese Davis</t>
+  </si>
+  <si>
+    <t>Bill Tarbell</t>
+  </si>
+  <si>
     <t>Robert Leeds</t>
   </si>
   <si>
+    <t>Juston Preble</t>
+  </si>
+  <si>
+    <t>Carlo Poliak</t>
+  </si>
+  <si>
     <t>Kelly Ayotte</t>
   </si>
   <si>
     <t>Jim Rubens</t>
   </si>
   <si>
+    <t>Tom Alciere</t>
+  </si>
+  <si>
+    <t>Gerald Beloin</t>
+  </si>
+  <si>
+    <t>Stanley Emanuel</t>
+  </si>
+  <si>
     <t>Maggie Hassan</t>
   </si>
   <si>
@@ -244,6 +577,9 @@
     <t>Wendy Long</t>
   </si>
   <si>
+    <t>Robin Laverne Wilson</t>
+  </si>
+  <si>
     <t>Alex Merced</t>
   </si>
   <si>
@@ -256,39 +592,81 @@
     <t>Paul Wright</t>
   </si>
   <si>
+    <t>Larry Holmquist</t>
+  </si>
+  <si>
     <t>Deborah Ross</t>
   </si>
   <si>
+    <t>Chris Rey</t>
+  </si>
+  <si>
     <t>Kevin Griffin</t>
   </si>
   <si>
+    <t>Ernest Reeves</t>
+  </si>
+  <si>
     <t>John Hoeven</t>
   </si>
   <si>
     <t>Eliot Glassheim</t>
   </si>
   <si>
+    <t>Robert Marquette</t>
+  </si>
+  <si>
     <t>Rob Portman</t>
   </si>
   <si>
+    <t>Don Elijah Eckhart</t>
+  </si>
+  <si>
     <t>Ted Strickland</t>
   </si>
   <si>
     <t>P.G. Sittenfeld</t>
   </si>
   <si>
+    <t>Kelli Prather</t>
+  </si>
+  <si>
+    <t>Joe DeMare</t>
+  </si>
+  <si>
     <t>Robert Murphy</t>
   </si>
   <si>
+    <t>Dax Ewbank</t>
+  </si>
+  <si>
     <t>Ron Wyden</t>
   </si>
   <si>
+    <t>Kevin Stine</t>
+  </si>
+  <si>
+    <t>Paul Weaver</t>
+  </si>
+  <si>
     <t>Mark Callahan</t>
   </si>
   <si>
     <t>Sam Carpenter</t>
   </si>
   <si>
+    <t>Faye Stewart</t>
+  </si>
+  <si>
+    <t>Dan Laschober</t>
+  </si>
+  <si>
+    <t>Steven Reynolds</t>
+  </si>
+  <si>
+    <t>Marvin Sandnes</t>
+  </si>
+  <si>
     <t>Pat Toomey</t>
   </si>
   <si>
@@ -301,6 +679,15 @@
     <t>John Fetterman</t>
   </si>
   <si>
+    <t>Joseph Vodvarka</t>
+  </si>
+  <si>
+    <t>Misty K. Snow</t>
+  </si>
+  <si>
+    <t>Jonathan Swinton</t>
+  </si>
+  <si>
     <t>Patrick Leahy</t>
   </si>
   <si>
@@ -313,16 +700,55 @@
     <t>Chris Vance</t>
   </si>
   <si>
+    <t>Eric John Markus</t>
+  </si>
+  <si>
+    <t>Phil Cornell</t>
+  </si>
+  <si>
+    <t>Scott Nazarino</t>
+  </si>
+  <si>
+    <t>Mike Luke</t>
+  </si>
+  <si>
+    <t>Mohammad Said</t>
+  </si>
+  <si>
+    <t>Donna Rae</t>
+  </si>
+  <si>
+    <t>Ted Cummings</t>
+  </si>
+  <si>
     <t>Sam Wright</t>
   </si>
   <si>
     <t>Uncle Mover</t>
   </si>
   <si>
+    <t>Jeremy Teuton</t>
+  </si>
+  <si>
+    <t>Thor Amundson</t>
+  </si>
+  <si>
     <t>Chuck Jackson</t>
   </si>
   <si>
+    <t>Pano Churchill</t>
+  </si>
+  <si>
+    <t>Zach Haller</t>
+  </si>
+  <si>
+    <t>Alex Tsimerman</t>
+  </si>
+  <si>
     <t>Russ Feingold</t>
+  </si>
+  <si>
+    <t>Scott Harbach</t>
   </si>
 </sst>
 </file>
@@ -680,14 +1106,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -696,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -704,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -712,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -720,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -728,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -736,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -752,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -760,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -768,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -776,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -784,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -792,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -800,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -808,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -816,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -824,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -832,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -840,7 +1266,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -848,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -856,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -864,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -872,7 +1298,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -880,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -888,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -896,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -904,7 +1330,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -912,7 +1338,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -920,7 +1346,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -928,7 +1354,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -936,7 +1362,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -944,7 +1370,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -952,7 +1378,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -960,7 +1386,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -968,7 +1394,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -976,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -984,7 +1410,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -992,7 +1418,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1000,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1008,7 +1434,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1016,7 +1442,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1024,7 +1450,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1032,7 +1458,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1040,7 +1466,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1048,7 +1474,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1056,7 +1482,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1064,7 +1490,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1072,7 +1498,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1080,7 +1506,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1088,7 +1514,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1096,7 +1522,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1104,7 +1530,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1112,7 +1538,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1120,7 +1546,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1128,7 +1554,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1136,7 +1562,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1144,7 +1570,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1152,7 +1578,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1160,7 +1586,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1168,7 +1594,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1176,7 +1602,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1184,7 +1610,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1192,7 +1618,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1200,7 +1626,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1208,7 +1634,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1216,7 +1642,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1224,7 +1650,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1232,7 +1658,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1240,7 +1666,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1248,7 +1674,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1256,7 +1682,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1264,7 +1690,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1272,7 +1698,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1280,7 +1706,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1288,7 +1714,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1296,7 +1722,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1304,7 +1730,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1312,7 +1738,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1320,7 +1746,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1328,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1336,7 +1762,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1344,7 +1770,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1352,7 +1778,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1360,7 +1786,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1368,7 +1794,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1376,7 +1802,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1384,7 +1810,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1392,7 +1818,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1400,7 +1826,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1408,7 +1834,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1416,7 +1842,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1424,7 +1850,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1432,7 +1858,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1440,7 +1866,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1448,7 +1874,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1456,7 +1882,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1464,7 +1890,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1472,7 +1898,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1480,7 +1906,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1488,7 +1914,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1496,7 +1922,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1504,7 +1930,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1512,7 +1938,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1520,7 +1946,1127 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
